--- a/web/WEB-INF/contact/people.xlsx
+++ b/web/WEB-INF/contact/people.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\j2ee_searchPeople1\web\WEB-INF\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F7A113-E0F0-43DC-A816-8F4B71868290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ACE41A-AD70-48BC-8C38-6A263B37916A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +56,114 @@
   </si>
   <si>
     <t>wfsun@dlut.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awdawd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma yun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jay zhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123xdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yrtyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estsesx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftfh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dgsgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agsgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoopa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">james </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jordan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nann</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nnaann'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,40 +500,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>13944648135</v>
@@ -438,15 +543,15 @@
         <v>494217470</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>123456789</v>
@@ -455,12 +560,262 @@
         <v>13180288</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>112321</v>
+      </c>
+      <c r="D4">
+        <v>454646</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>12321312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>123</v>
+      </c>
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v>13543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>7867</v>
+      </c>
+      <c r="E7">
+        <v>42453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>54556546</v>
+      </c>
+      <c r="D9">
+        <v>98908</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>456456</v>
+      </c>
+      <c r="D10">
+        <v>54656</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>535</v>
+      </c>
+      <c r="D11">
+        <v>453543</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>6886</v>
+      </c>
+      <c r="D12">
+        <v>5465464</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>99887</v>
+      </c>
+      <c r="D13">
+        <v>543453</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>4355354</v>
+      </c>
+      <c r="D14">
+        <v>546456</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>123123124</v>
+      </c>
+      <c r="D15">
+        <v>1241244</v>
+      </c>
+      <c r="E15">
+        <v>124125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>5346</v>
+      </c>
+      <c r="D16">
+        <v>12512</v>
+      </c>
+      <c r="E16">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>34346</v>
+      </c>
+      <c r="D17">
+        <v>345235</v>
+      </c>
+      <c r="E17">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>235</v>
+      </c>
+      <c r="D18">
+        <v>32423</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
